--- a/output/01.technical_outliers_and_loq/samples_fish_sp_nut_under_LOQ.xlsx
+++ b/output/01.technical_outliers_and_loq/samples_fish_sp_nut_under_LOQ.xlsx
@@ -176,7 +176,7 @@
     <t xml:space="preserve">Protomyctophum tenisoni</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
 </sst>
 </file>
